--- a/EndothelialCluster12.xlsx
+++ b/EndothelialCluster12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6898CFA-E46C-40F2-B053-3F0AEA59D9E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABAFEAC-6794-4785-8EEE-FC79CED46394}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
-    <t>Gene Name</t>
-  </si>
-  <si>
-    <t>Gene Type</t>
-  </si>
-  <si>
-    <t>Max Expression</t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>Tbx20</t>
   </si>
   <si>
@@ -289,6 +274,21 @@
   </si>
   <si>
     <t>Adam19</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>MaxExpression</t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,27 +623,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>764</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>527</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2260</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>697</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>753</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1250</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1100</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>794</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1280</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>920</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>7870</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>711</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>3140</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1270</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>759</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>806</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>548</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>764</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>482</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1910</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1470</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>957</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1020</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>3250</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>498</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1260</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>1790</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>694</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>520</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>558</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>503</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>889</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>3470</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1390</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>2660</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1210</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>466</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>877</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>778</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>406</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>606</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>2250</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1850</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1010</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1970</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>2570</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1590</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>409</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>651</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1620</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1440</v>
@@ -1507,10 +1507,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>567</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>435</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>788</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>697</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>605</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>897</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>468</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>470</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1140</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>515</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1120</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1700</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>782</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>517</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>2050</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>5200</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>407</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>647</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>700</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>2640</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1070</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>2120</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>1030</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>893</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>827</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C78">
         <v>561</v>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>1800</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>2030</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>564</v>
